--- a/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
@@ -579,17 +579,17 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5842642757626794</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>0.755102505118708</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4664061925684357</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9080445780530164</v>
+        <v>0.6520778175948405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9554755635891957</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.167748774024743</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.3080723459390811</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -621,19 +621,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4421881756157631</v>
+        <v>0.4265307515356124</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0167748774024743</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08354975480494861</v>
+        <v>0.03775512525593541</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
@@ -579,10 +579,10 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.755102505118708</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6520778175948405</v>
+        <v>0.04885661194247103</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.7956494726657752</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3080723459390811</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2095613962756084</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4265307515356124</v>
+        <v>0.4419122792551217</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.05186926217476373</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03775512525593541</v>
+        <v>0.2091298945331551</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.9624490954991871</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04885661194247103</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7956494726657752</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2095613962756084</v>
+        <v>0.5295057236139427</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4419122792551217</v>
+        <v>0.4946358733725447</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05186926217476373</v>
+        <v>0.0794258585420914</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2091298945331551</v>
+        <v>0.04812245477495936</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Complexity_STD</t>
         </is>
@@ -570,25 +555,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5842642757626794</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4664061925684357</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -597,51 +582,42 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9080445780530164</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9554755635891957</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>0.167748774024743</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>79.7</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4421881756157631</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>14.95</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0167748774024743</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08354975480494861</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
